--- a/Uploads/bitcoin_close_1wk.xlsx
+++ b/Uploads/bitcoin_close_1wk.xlsx
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>105196.97</v>
+        <v>106604.09</v>
       </c>
     </row>
   </sheetData>
